--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH04_GenerateVirtualEvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900088EA-28C7-400B-9A66-947191715489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069639F1-B49C-4AD0-9832-259F2E7FD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3105" windowWidth="11160" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21045" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>NewHire_VirtualEventQueue</t>
+  </si>
+  <si>
+    <t>ManagementTestAddress</t>
   </si>
 </sst>
 </file>
@@ -113,11 +116,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,7 +1513,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1570,7 +1576,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH04_GenerateVirtualEvent\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH05_GenerateBootcamp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069639F1-B49C-4AD0-9832-259F2E7FD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38685B5-2E37-4242-9179-B711C73626D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21045" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="4155" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>ManagementTestAddress</t>
+  </si>
+  <si>
+    <t>URL_BootcampFilesApp</t>
+  </si>
+  <si>
+    <t>URL_FastPace</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1519,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" activeCellId="1" sqref="A6 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1584,8 +1590,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH05_GenerateBootcamp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38685B5-2E37-4242-9179-B711C73626D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16111D6-B371-47FF-9B92-A36D30FA1075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9630" yWindow="4155" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>URL_FastPace</t>
+  </si>
+  <si>
+    <t>TestAddress</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1522,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="A6 D12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1606,7 +1609,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
